--- a/Barroc IT - Documentatie/Steven/Group 1 - Notulen - 29-09-2015/Notulen 29-09-2015.xlsx
+++ b/Barroc IT - Documentatie/Steven/Group 1 - Notulen - 29-09-2015/Notulen 29-09-2015.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Afwezig:</t>
   </si>
@@ -42,9 +42,6 @@
     <t>2 Mededelingen</t>
   </si>
   <si>
-    <t>9 Rondvraag</t>
-  </si>
-  <si>
     <t>Verslag overleg op</t>
   </si>
   <si>
@@ -66,15 +63,6 @@
     <t>er is maar 1 vergadering geweest, volgende week moet de notulen komen van 4 weken terug</t>
   </si>
   <si>
-    <t>8 Vastellen volgende vergadering: 5 october.</t>
-  </si>
-  <si>
-    <t>12 Werkhouding</t>
-  </si>
-  <si>
-    <t>11 Notulens</t>
-  </si>
-  <si>
     <t>De notulen moet worden verbeterd, Notulen van laatste vergadering nog opsturen.</t>
   </si>
   <si>
@@ -84,10 +72,34 @@
     <t>Slecht, moet worden verbeterd door er ook thuis aan het project te werken.</t>
   </si>
   <si>
-    <t>13 Logboek</t>
-  </si>
-  <si>
     <t>Het moet worden bijgehouden in excel en de uren moeten worden berekent</t>
+  </si>
+  <si>
+    <t>4 Vastellen volgende vergadering: 5 october.</t>
+  </si>
+  <si>
+    <t>5 Agenda</t>
+  </si>
+  <si>
+    <t>6 Notulens</t>
+  </si>
+  <si>
+    <t>7 Werkhouding</t>
+  </si>
+  <si>
+    <t>8 Logboek</t>
+  </si>
+  <si>
+    <t>Groep 1</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Notulist</t>
+  </si>
+  <si>
+    <t>5 okt. 2015</t>
   </si>
 </sst>
 </file>
@@ -125,11 +137,11 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -152,7 +164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -175,11 +187,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -224,29 +245,41 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -278,7 +311,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:rowOff>3464</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -601,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,17 +646,20 @@
     <col min="2" max="2" width="110.5703125" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
+      <c r="F1" s="23"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -636,16 +672,16 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -656,17 +692,19 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -677,17 +715,19 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="22"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -698,15 +738,17 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
-    </row>
-    <row r="5" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="G5" s="25"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -718,7 +760,7 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>1</v>
       </c>
@@ -735,7 +777,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -747,15 +789,17 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="E7" s="10"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -770,12 +814,12 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
@@ -793,16 +837,20 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>10</v>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>9</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
+      <c r="D9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
@@ -816,8 +864,10 @@
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
     </row>
-    <row r="10" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -835,162 +885,151 @@
       <c r="P10" s="13"/>
       <c r="Q10" s="13"/>
     </row>
-    <row r="11" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="14"/>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="14"/>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
+      <c r="D12" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="E12" s="15"/>
     </row>
-    <row r="13" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="14"/>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="C13" s="14"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="16"/>
+        <v>23</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
+      <c r="D14" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
-        <v>8</v>
-      </c>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
-        <v>10</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>20</v>
-      </c>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>19</v>
-      </c>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="14"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>21</v>
-      </c>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="14"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>23</v>
-      </c>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="14"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
-        <v>14</v>
-      </c>
+      <c r="A20" s="17"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
     </row>
-    <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A21" s="19">
-        <v>15</v>
-      </c>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
     </row>
-    <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A22" s="19">
-        <v>16</v>
-      </c>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
     </row>
     <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
     </row>
     <row r="24" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-    </row>
-    <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1022,18 +1061,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1086,6 +1125,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79336D9A-F347-4BF9-A03C-2F519BF74106}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F91946DA-1D0C-4852-AC5F-029A4620CB68}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -1095,14 +1142,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79336D9A-F347-4BF9-A03C-2F519BF74106}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
